--- a/LiftCost.xlsx
+++ b/LiftCost.xlsx
@@ -5,11 +5,11 @@
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Achates/Desktop/study/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Achates/Documents/LifeCost/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3940" yWindow="1660" windowWidth="28800" windowHeight="17600" tabRatio="500"/>
+    <workbookView xWindow="4260" yWindow="5680" windowWidth="28800" windowHeight="17600" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>2016年12月</t>
     <rPh sb="4" eb="5">
@@ -276,6 +276,27 @@
     </rPh>
     <rPh sb="3" eb="4">
       <t>hui zong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">天然气20
+家具用品15.5      </t>
+    <rPh sb="0" eb="1">
+      <t>tian rna qi</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>jia ju</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>yon pin</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>截至当日</t>
+    <rPh sb="0" eb="1">
+      <t>jie zhi dang ri</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -329,15 +350,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -351,13 +369,33 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -636,21 +674,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H41"/>
+  <dimension ref="A1:I41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="14.6640625" customWidth="1"/>
-    <col min="2" max="2" width="10.83203125" style="3"/>
+    <col min="2" max="2" width="10.83203125" style="2"/>
     <col min="7" max="7" width="10.83203125" style="1"/>
+    <col min="8" max="8" width="27" customWidth="1"/>
+    <col min="9" max="9" width="24.1640625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B1" s="4" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -659,422 +699,467 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="2"/>
+      <c r="F1" s="11"/>
       <c r="H1" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="17" x14ac:dyDescent="0.15">
-      <c r="A2" s="5" t="s">
+      <c r="I1" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="17" x14ac:dyDescent="0.15">
+      <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="5"/>
-    </row>
-    <row r="3" spans="1:8" ht="17" x14ac:dyDescent="0.15">
-      <c r="A3" s="7" t="s">
+      <c r="B2" s="5"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="14"/>
+    </row>
+    <row r="3" spans="1:9" ht="17" x14ac:dyDescent="0.15">
+      <c r="A3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="9">
         <v>3</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="8">
         <v>11</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="8">
         <v>0</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="8"/>
-      <c r="G3" s="9">
+      <c r="F3" s="10"/>
+      <c r="G3" s="17">
         <v>120</v>
       </c>
-      <c r="H3" s="5"/>
-    </row>
-    <row r="4" spans="1:8" ht="17" x14ac:dyDescent="0.15">
-      <c r="A4" s="7" t="s">
+      <c r="H3" s="9">
+        <f>SUM(B3:D3,G3)</f>
+        <v>134</v>
+      </c>
+      <c r="I3" s="3">
+        <f>SUM(H3)</f>
+        <v>134</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="17" x14ac:dyDescent="0.15">
+      <c r="A4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="6">
-        <v>4</v>
-      </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="8" t="s">
+      <c r="B4" s="9">
+        <f>4+SUM(B3)</f>
+        <v>7</v>
+      </c>
+      <c r="C4" s="8">
+        <v>16</v>
+      </c>
+      <c r="D4" s="8">
+        <v>30</v>
+      </c>
+      <c r="E4" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="8"/>
-      <c r="G4" s="6">
+      <c r="F4" s="10"/>
+      <c r="G4" s="9">
         <v>320</v>
       </c>
-      <c r="H4" s="5"/>
-    </row>
-    <row r="5" spans="1:8" ht="17" x14ac:dyDescent="0.15">
-      <c r="A5" s="7" t="s">
+      <c r="H4" s="9">
+        <f t="shared" ref="H4:H5" si="0">SUM(B4:D4,G4)</f>
+        <v>373</v>
+      </c>
+      <c r="I4" s="3">
+        <f>SUM(H3:H4)</f>
+        <v>507</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="37" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="5"/>
-    </row>
-    <row r="6" spans="1:8" ht="17" x14ac:dyDescent="0.15">
-      <c r="A6" s="7" t="s">
+      <c r="B5" s="9">
+        <v>3.5</v>
+      </c>
+      <c r="C5" s="9">
+        <v>24.5</v>
+      </c>
+      <c r="D5" s="9"/>
+      <c r="E5" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" s="13"/>
+      <c r="G5" s="9">
+        <v>35.5</v>
+      </c>
+      <c r="H5" s="9">
+        <f t="shared" si="0"/>
+        <v>63.5</v>
+      </c>
+      <c r="I5" s="3">
+        <f>SUM(H3:H5)</f>
+        <v>570.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="17" x14ac:dyDescent="0.15">
+      <c r="A6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="5"/>
-    </row>
-    <row r="7" spans="1:8" ht="17" x14ac:dyDescent="0.15">
-      <c r="A7" s="7" t="s">
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+    </row>
+    <row r="7" spans="1:9" ht="17" x14ac:dyDescent="0.15">
+      <c r="A7" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="10"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="5"/>
-    </row>
-    <row r="8" spans="1:8" ht="17" x14ac:dyDescent="0.15">
-      <c r="A8" s="7" t="s">
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+    </row>
+    <row r="8" spans="1:9" ht="17" x14ac:dyDescent="0.15">
+      <c r="A8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="5"/>
-    </row>
-    <row r="9" spans="1:8" ht="17" x14ac:dyDescent="0.15">
-      <c r="A9" s="7" t="s">
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+    </row>
+    <row r="9" spans="1:9" ht="17" x14ac:dyDescent="0.15">
+      <c r="A9" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="10"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="5"/>
-    </row>
-    <row r="10" spans="1:8" ht="17" x14ac:dyDescent="0.15">
-      <c r="A10" s="7" t="s">
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+    </row>
+    <row r="10" spans="1:9" ht="17" x14ac:dyDescent="0.15">
+      <c r="A10" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="10"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="5"/>
-    </row>
-    <row r="11" spans="1:8" ht="17" x14ac:dyDescent="0.15">
-      <c r="A11" s="7" t="s">
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+    </row>
+    <row r="11" spans="1:9" ht="17" x14ac:dyDescent="0.15">
+      <c r="A11" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="10"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="5"/>
-    </row>
-    <row r="12" spans="1:8" ht="17" x14ac:dyDescent="0.15">
-      <c r="A12" s="7" t="s">
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+    </row>
+    <row r="12" spans="1:9" ht="17" x14ac:dyDescent="0.15">
+      <c r="A12" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="10"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="5"/>
-    </row>
-    <row r="13" spans="1:8" ht="17" x14ac:dyDescent="0.15">
-      <c r="A13" s="7" t="s">
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+    </row>
+    <row r="13" spans="1:9" ht="17" x14ac:dyDescent="0.15">
+      <c r="A13" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="10"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="5"/>
-    </row>
-    <row r="14" spans="1:8" ht="17" x14ac:dyDescent="0.15">
-      <c r="A14" s="7" t="s">
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+    </row>
+    <row r="14" spans="1:9" ht="17" x14ac:dyDescent="0.15">
+      <c r="A14" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="10"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="5"/>
-    </row>
-    <row r="15" spans="1:8" ht="17" x14ac:dyDescent="0.15">
-      <c r="A15" s="7" t="s">
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+    </row>
+    <row r="15" spans="1:9" ht="17" x14ac:dyDescent="0.15">
+      <c r="A15" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="10"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="5"/>
-    </row>
-    <row r="16" spans="1:8" ht="17" x14ac:dyDescent="0.15">
-      <c r="A16" s="7" t="s">
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+    </row>
+    <row r="16" spans="1:9" ht="17" x14ac:dyDescent="0.15">
+      <c r="A16" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="10"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="5"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
     </row>
     <row r="17" spans="1:8" ht="17" x14ac:dyDescent="0.15">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="10"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="5"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
     </row>
     <row r="18" spans="1:8" ht="17" x14ac:dyDescent="0.15">
-      <c r="A18" s="7" t="s">
+      <c r="A18" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="10"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="5"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
     </row>
     <row r="19" spans="1:8" ht="17" x14ac:dyDescent="0.15">
-      <c r="A19" s="7" t="s">
+      <c r="A19" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B19" s="10"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="5"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
     </row>
     <row r="20" spans="1:8" ht="17" x14ac:dyDescent="0.15">
-      <c r="A20" s="7" t="s">
+      <c r="A20" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B20" s="10"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="5"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
     </row>
     <row r="21" spans="1:8" ht="17" x14ac:dyDescent="0.15">
-      <c r="A21" s="7" t="s">
+      <c r="A21" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="10"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="5"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
     </row>
     <row r="22" spans="1:8" ht="17" x14ac:dyDescent="0.15">
-      <c r="A22" s="7" t="s">
+      <c r="A22" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B22" s="10"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="5"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="16"/>
     </row>
     <row r="23" spans="1:8" ht="17" x14ac:dyDescent="0.15">
-      <c r="A23" s="7" t="s">
+      <c r="A23" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B23" s="10"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="5"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="16"/>
     </row>
     <row r="24" spans="1:8" ht="17" x14ac:dyDescent="0.15">
-      <c r="A24" s="7" t="s">
+      <c r="A24" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B24" s="10"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="5"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="16"/>
     </row>
     <row r="25" spans="1:8" ht="17" x14ac:dyDescent="0.15">
-      <c r="A25" s="7" t="s">
+      <c r="A25" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B25" s="10"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="5"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="16"/>
     </row>
     <row r="26" spans="1:8" ht="17" x14ac:dyDescent="0.15">
-      <c r="A26" s="7" t="s">
+      <c r="A26" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B26" s="10"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="5"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="16"/>
     </row>
     <row r="27" spans="1:8" ht="17" x14ac:dyDescent="0.15">
-      <c r="A27" s="7" t="s">
+      <c r="A27" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B27" s="10"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="5"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="16"/>
     </row>
     <row r="28" spans="1:8" ht="17" x14ac:dyDescent="0.15">
-      <c r="A28" s="7" t="s">
+      <c r="A28" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B28" s="10"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="5"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="16"/>
     </row>
     <row r="29" spans="1:8" ht="17" x14ac:dyDescent="0.15">
-      <c r="A29" s="7" t="s">
+      <c r="A29" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B29" s="10"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="5"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="14"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A30" s="1"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="H30" s="15"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A31" s="1"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="H31" s="15"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A32" s="1"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="H32" s="15"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A33" s="1"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
+      <c r="H33" s="15"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A34" s="1"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="E34" s="11"/>
+      <c r="F34" s="11"/>
+      <c r="H34" s="15"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A35" s="1"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
+      <c r="H35" s="15"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A36" s="1"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
+      <c r="H36" s="15"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A37" s="1"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
+      <c r="H37" s="15"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A38" s="1"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="E38" s="11"/>
+      <c r="F38" s="11"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A39" s="1"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="E39" s="11"/>
+      <c r="F39" s="11"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A40" s="1"/>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="E40" s="11"/>
+      <c r="F40" s="11"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A41" s="1"/>
     </row>
   </sheetData>
@@ -1089,11 +1174,6 @@
     <mergeCell ref="E34:F34"/>
     <mergeCell ref="E35:F35"/>
     <mergeCell ref="E36:F36"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="E29:F29"/>
     <mergeCell ref="E30:F30"/>
     <mergeCell ref="E19:F19"/>
     <mergeCell ref="E20:F20"/>
@@ -1101,11 +1181,11 @@
     <mergeCell ref="E22:F22"/>
     <mergeCell ref="E23:F23"/>
     <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E29:F29"/>
     <mergeCell ref="E18:F18"/>
     <mergeCell ref="E7:F7"/>
     <mergeCell ref="E8:F8"/>
@@ -1113,12 +1193,17 @@
     <mergeCell ref="E10:F10"/>
     <mergeCell ref="E11:F11"/>
     <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E6:F6"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/LiftCost.xlsx
+++ b/LiftCost.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4260" yWindow="5680" windowWidth="28800" windowHeight="17600" tabRatio="500"/>
+    <workbookView xWindow="8020" yWindow="2400" windowWidth="28800" windowHeight="17600" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -263,13 +263,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>累计</t>
-    <rPh sb="0" eb="1">
-      <t>lei ji</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>12月汇总</t>
     <rPh sb="2" eb="3">
       <t>yue</t>
@@ -297,6 +290,16 @@
     <t>截至当日</t>
     <rPh sb="0" eb="1">
       <t>jie zhi dang ri</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当日开销</t>
+    <rPh sb="0" eb="1">
+      <t>dang ri</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>kai xiao</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -377,18 +380,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -396,6 +387,18 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -677,7 +680,7 @@
   <dimension ref="A1:I41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -699,15 +702,15 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="11"/>
+      <c r="F1" s="14"/>
       <c r="H1" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="17" x14ac:dyDescent="0.15">
@@ -717,10 +720,10 @@
       <c r="B2" s="5"/>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
       <c r="G2" s="6"/>
-      <c r="H2" s="14"/>
+      <c r="H2" s="10"/>
     </row>
     <row r="3" spans="1:9" ht="17" x14ac:dyDescent="0.15">
       <c r="A3" s="6" t="s">
@@ -735,11 +738,11 @@
       <c r="D3" s="8">
         <v>0</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="10"/>
-      <c r="G3" s="17">
+      <c r="F3" s="15"/>
+      <c r="G3" s="13">
         <v>120</v>
       </c>
       <c r="H3" s="9">
@@ -765,10 +768,10 @@
       <c r="D4" s="8">
         <v>30</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="10"/>
+      <c r="F4" s="15"/>
       <c r="G4" s="9">
         <v>320</v>
       </c>
@@ -791,32 +794,38 @@
       <c r="C5" s="9">
         <v>24.5</v>
       </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="F5" s="13"/>
+      <c r="D5" s="9">
+        <v>3</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" s="17"/>
       <c r="G5" s="9">
         <v>35.5</v>
       </c>
       <c r="H5" s="9">
-        <f t="shared" si="0"/>
-        <v>63.5</v>
+        <f>SUM(B5:D5,G5)</f>
+        <v>66.5</v>
       </c>
       <c r="I5" s="3">
         <f>SUM(H3:H5)</f>
-        <v>570.5</v>
+        <v>573.5</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17" x14ac:dyDescent="0.15">
       <c r="A6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
+      <c r="B6" s="9">
+        <v>0</v>
+      </c>
+      <c r="C6" s="9">
+        <v>22.5</v>
+      </c>
       <c r="D6" s="9"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
       <c r="G6" s="9"/>
       <c r="H6" s="9"/>
     </row>
@@ -827,8 +836,8 @@
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
     </row>
@@ -839,8 +848,8 @@
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
     </row>
@@ -851,8 +860,8 @@
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
     </row>
@@ -863,8 +872,8 @@
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
     </row>
@@ -875,8 +884,8 @@
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
       <c r="G11" s="9"/>
       <c r="H11" s="9"/>
     </row>
@@ -887,8 +896,8 @@
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
       <c r="G12" s="9"/>
       <c r="H12" s="9"/>
     </row>
@@ -899,8 +908,8 @@
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
     </row>
@@ -911,8 +920,8 @@
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
       <c r="G14" s="9"/>
       <c r="H14" s="9"/>
     </row>
@@ -923,8 +932,8 @@
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
       <c r="G15" s="9"/>
       <c r="H15" s="9"/>
     </row>
@@ -935,8 +944,8 @@
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
       <c r="G16" s="9"/>
       <c r="H16" s="9"/>
     </row>
@@ -947,8 +956,8 @@
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
       <c r="G17" s="9"/>
       <c r="H17" s="9"/>
     </row>
@@ -959,8 +968,8 @@
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
       <c r="G18" s="9"/>
       <c r="H18" s="9"/>
     </row>
@@ -971,8 +980,8 @@
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
       <c r="D19" s="9"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
       <c r="G19" s="9"/>
       <c r="H19" s="9"/>
     </row>
@@ -983,8 +992,8 @@
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
       <c r="G20" s="9"/>
       <c r="H20" s="9"/>
     </row>
@@ -995,8 +1004,8 @@
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
       <c r="D21" s="9"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
       <c r="G21" s="9"/>
       <c r="H21" s="9"/>
     </row>
@@ -1007,10 +1016,10 @@
       <c r="B22" s="9"/>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
       <c r="G22" s="9"/>
-      <c r="H22" s="16"/>
+      <c r="H22" s="12"/>
     </row>
     <row r="23" spans="1:8" ht="17" x14ac:dyDescent="0.15">
       <c r="A23" s="6" t="s">
@@ -1019,10 +1028,10 @@
       <c r="B23" s="9"/>
       <c r="C23" s="9"/>
       <c r="D23" s="9"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
       <c r="G23" s="9"/>
-      <c r="H23" s="16"/>
+      <c r="H23" s="12"/>
     </row>
     <row r="24" spans="1:8" ht="17" x14ac:dyDescent="0.15">
       <c r="A24" s="6" t="s">
@@ -1031,10 +1040,10 @@
       <c r="B24" s="9"/>
       <c r="C24" s="9"/>
       <c r="D24" s="9"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
       <c r="G24" s="9"/>
-      <c r="H24" s="16"/>
+      <c r="H24" s="12"/>
     </row>
     <row r="25" spans="1:8" ht="17" x14ac:dyDescent="0.15">
       <c r="A25" s="6" t="s">
@@ -1043,10 +1052,10 @@
       <c r="B25" s="9"/>
       <c r="C25" s="9"/>
       <c r="D25" s="9"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
       <c r="G25" s="9"/>
-      <c r="H25" s="16"/>
+      <c r="H25" s="12"/>
     </row>
     <row r="26" spans="1:8" ht="17" x14ac:dyDescent="0.15">
       <c r="A26" s="6" t="s">
@@ -1055,10 +1064,10 @@
       <c r="B26" s="9"/>
       <c r="C26" s="9"/>
       <c r="D26" s="9"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
       <c r="G26" s="9"/>
-      <c r="H26" s="16"/>
+      <c r="H26" s="12"/>
     </row>
     <row r="27" spans="1:8" ht="17" x14ac:dyDescent="0.15">
       <c r="A27" s="6" t="s">
@@ -1067,10 +1076,10 @@
       <c r="B27" s="9"/>
       <c r="C27" s="9"/>
       <c r="D27" s="9"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="15"/>
       <c r="G27" s="9"/>
-      <c r="H27" s="16"/>
+      <c r="H27" s="12"/>
     </row>
     <row r="28" spans="1:8" ht="17" x14ac:dyDescent="0.15">
       <c r="A28" s="6" t="s">
@@ -1079,101 +1088,109 @@
       <c r="B28" s="9"/>
       <c r="C28" s="9"/>
       <c r="D28" s="9"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="15"/>
       <c r="G28" s="9"/>
-      <c r="H28" s="16"/>
+      <c r="H28" s="12"/>
     </row>
     <row r="29" spans="1:8" ht="17" x14ac:dyDescent="0.15">
       <c r="A29" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B29" s="7"/>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="10"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="15"/>
       <c r="G29" s="6"/>
-      <c r="H29" s="14"/>
+      <c r="H29" s="10"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A30" s="1"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="11"/>
-      <c r="H30" s="15"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c r="H30" s="11"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A31" s="1"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="11"/>
-      <c r="H31" s="15"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c r="H31" s="11"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A32" s="1"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="11"/>
-      <c r="H32" s="15"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+      <c r="H32" s="11"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A33" s="1"/>
-      <c r="E33" s="11"/>
-      <c r="F33" s="11"/>
-      <c r="H33" s="15"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+      <c r="H33" s="11"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A34" s="1"/>
-      <c r="E34" s="11"/>
-      <c r="F34" s="11"/>
-      <c r="H34" s="15"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="14"/>
+      <c r="H34" s="11"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A35" s="1"/>
-      <c r="E35" s="11"/>
-      <c r="F35" s="11"/>
-      <c r="H35" s="15"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="14"/>
+      <c r="H35" s="11"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A36" s="1"/>
-      <c r="E36" s="11"/>
-      <c r="F36" s="11"/>
-      <c r="H36" s="15"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
+      <c r="H36" s="11"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A37" s="1"/>
-      <c r="E37" s="11"/>
-      <c r="F37" s="11"/>
-      <c r="H37" s="15"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="14"/>
+      <c r="H37" s="11"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A38" s="1"/>
-      <c r="E38" s="11"/>
-      <c r="F38" s="11"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="14"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A39" s="1"/>
-      <c r="E39" s="11"/>
-      <c r="F39" s="11"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="14"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A40" s="1"/>
-      <c r="E40" s="11"/>
-      <c r="F40" s="11"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="14"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A41" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E17:F17"/>
     <mergeCell ref="E30:F30"/>
     <mergeCell ref="E19:F19"/>
     <mergeCell ref="E20:F20"/>
@@ -1186,24 +1203,16 @@
     <mergeCell ref="E27:F27"/>
     <mergeCell ref="E28:F28"/>
     <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E36:F36"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/LiftCost.xlsx
+++ b/LiftCost.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="8020" yWindow="2400" windowWidth="28800" windowHeight="17600" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="620" windowWidth="38400" windowHeight="19540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>2016年12月</t>
     <rPh sb="4" eb="5">
@@ -300,6 +300,45 @@
     </rPh>
     <rPh sb="2" eb="3">
       <t>kai xiao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高速费</t>
+    <rPh sb="0" eb="1">
+      <t>gao su</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>fei</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鱼肝油</t>
+    <rPh sb="0" eb="1">
+      <t>yu gan you</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">洗车费
+</t>
+    <rPh sb="0" eb="1">
+      <t>xi che fei</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高速费10
+汽车坐垫360</t>
+    <rPh sb="0" eb="1">
+      <t>gao su fei</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>qi che</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>zuo dian</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -353,7 +392,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -399,6 +438,15 @@
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -680,7 +728,7 @@
   <dimension ref="A1:I41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -776,7 +824,7 @@
         <v>320</v>
       </c>
       <c r="H4" s="9">
-        <f t="shared" ref="H4:H5" si="0">SUM(B4:D4,G4)</f>
+        <f t="shared" ref="H4" si="0">SUM(B4:D4,G4)</f>
         <v>373</v>
       </c>
       <c r="I4" s="3">
@@ -823,47 +871,109 @@
       <c r="C6" s="9">
         <v>22.5</v>
       </c>
-      <c r="D6" s="9"/>
-      <c r="E6" s="15"/>
+      <c r="D6" s="9">
+        <v>0</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>37</v>
+      </c>
       <c r="F6" s="15"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-    </row>
-    <row r="7" spans="1:9" ht="17" x14ac:dyDescent="0.15">
+      <c r="G6" s="9">
+        <v>10</v>
+      </c>
+      <c r="H6" s="9">
+        <v>32.5</v>
+      </c>
+      <c r="I6" s="3">
+        <f>SUM(H3:H6)</f>
+        <v>606</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="15"/>
+      <c r="B7" s="9">
+        <v>0</v>
+      </c>
+      <c r="C7" s="9">
+        <v>0</v>
+      </c>
+      <c r="D7" s="9">
+        <v>0</v>
+      </c>
+      <c r="E7" s="18" t="s">
+        <v>39</v>
+      </c>
       <c r="F7" s="15"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
+      <c r="G7" s="9">
+        <v>20</v>
+      </c>
+      <c r="H7" s="9">
+        <v>20</v>
+      </c>
+      <c r="I7" s="3">
+        <f>SUM(H3:H7)</f>
+        <v>626</v>
+      </c>
     </row>
     <row r="8" spans="1:9" ht="17" x14ac:dyDescent="0.15">
       <c r="A8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="15"/>
+      <c r="B8" s="9">
+        <v>0</v>
+      </c>
+      <c r="C8" s="9">
+        <v>17</v>
+      </c>
+      <c r="D8" s="9">
+        <v>0</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>38</v>
+      </c>
       <c r="F8" s="15"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-    </row>
-    <row r="9" spans="1:9" ht="17" x14ac:dyDescent="0.15">
+      <c r="G8" s="9">
+        <v>230</v>
+      </c>
+      <c r="H8" s="9">
+        <f>SUM(G8,B8:D8)</f>
+        <v>247</v>
+      </c>
+      <c r="I8" s="3">
+        <f>SUM(H3:H8)</f>
+        <v>873</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="49" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
+      <c r="B9" s="9">
+        <v>0</v>
+      </c>
+      <c r="C9" s="9">
+        <v>10.5</v>
+      </c>
+      <c r="D9" s="9">
+        <v>10</v>
+      </c>
+      <c r="E9" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="F9" s="19"/>
+      <c r="G9" s="9">
+        <v>370</v>
+      </c>
+      <c r="H9" s="9">
+        <f>SUM(B9:D9,G9)</f>
+        <v>390.5</v>
+      </c>
+      <c r="I9" s="3">
+        <f>SUM(H3:H9)</f>
+        <v>1263.5</v>
+      </c>
     </row>
     <row r="10" spans="1:9" ht="17" x14ac:dyDescent="0.15">
       <c r="A10" s="6" t="s">

--- a/LiftCost.xlsx
+++ b/LiftCost.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="620" windowWidth="38400" windowHeight="19540" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="19540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>2016年12月</t>
     <rPh sb="4" eb="5">
@@ -330,7 +330,8 @@
   </si>
   <si>
     <t>高速费10
-汽车坐垫360</t>
+汽车坐垫360
+充话费100</t>
     <rPh sb="0" eb="1">
       <t>gao su fei</t>
     </rPh>
@@ -339,6 +340,16 @@
     </rPh>
     <rPh sb="8" eb="9">
       <t>zuo dian</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>chong hua fei</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>淘宝123</t>
+    <rPh sb="0" eb="1">
+      <t>tao bao</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -427,13 +438,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -443,10 +454,10 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -728,7 +739,7 @@
   <dimension ref="A1:I41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -750,10 +761,10 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="14"/>
+      <c r="F1" s="15"/>
       <c r="H1" s="1" t="s">
         <v>36</v>
       </c>
@@ -768,8 +779,8 @@
       <c r="B2" s="5"/>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
       <c r="G2" s="6"/>
       <c r="H2" s="10"/>
     </row>
@@ -786,10 +797,10 @@
       <c r="D3" s="8">
         <v>0</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="15"/>
+      <c r="F3" s="14"/>
       <c r="G3" s="13">
         <v>120</v>
       </c>
@@ -816,10 +827,10 @@
       <c r="D4" s="8">
         <v>30</v>
       </c>
-      <c r="E4" s="15" t="s">
+      <c r="E4" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="15"/>
+      <c r="F4" s="14"/>
       <c r="G4" s="9">
         <v>320</v>
       </c>
@@ -874,10 +885,10 @@
       <c r="D6" s="9">
         <v>0</v>
       </c>
-      <c r="E6" s="15" t="s">
+      <c r="E6" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="F6" s="15"/>
+      <c r="F6" s="14"/>
       <c r="G6" s="9">
         <v>10</v>
       </c>
@@ -905,7 +916,7 @@
       <c r="E7" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="F7" s="15"/>
+      <c r="F7" s="14"/>
       <c r="G7" s="9">
         <v>20</v>
       </c>
@@ -930,10 +941,10 @@
       <c r="D8" s="9">
         <v>0</v>
       </c>
-      <c r="E8" s="15" t="s">
+      <c r="E8" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="F8" s="15"/>
+      <c r="F8" s="14"/>
       <c r="G8" s="9">
         <v>230</v>
       </c>
@@ -959,33 +970,50 @@
       <c r="D9" s="9">
         <v>10</v>
       </c>
-      <c r="E9" s="20" t="s">
+      <c r="E9" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="F9" s="19"/>
+      <c r="F9" s="20"/>
       <c r="G9" s="9">
-        <v>370</v>
+        <v>470</v>
       </c>
       <c r="H9" s="9">
         <f>SUM(B9:D9,G9)</f>
-        <v>390.5</v>
+        <v>490.5</v>
       </c>
       <c r="I9" s="3">
         <f>SUM(H3:H9)</f>
-        <v>1263.5</v>
+        <v>1363.5</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="17" x14ac:dyDescent="0.15">
       <c r="A10" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
+      <c r="B10" s="9">
+        <v>3</v>
+      </c>
+      <c r="C10" s="9">
+        <v>10</v>
+      </c>
+      <c r="D10" s="9">
+        <v>0</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" s="14"/>
+      <c r="G10" s="9">
+        <v>123</v>
+      </c>
+      <c r="H10" s="9">
+        <f>SUM(B10:D10,G10)</f>
+        <v>136</v>
+      </c>
+      <c r="I10" s="3">
+        <f>SUM(H3:H10)</f>
+        <v>1499.5</v>
+      </c>
     </row>
     <row r="11" spans="1:9" ht="17" x14ac:dyDescent="0.15">
       <c r="A11" s="6" t="s">
@@ -994,8 +1022,8 @@
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
       <c r="G11" s="9"/>
       <c r="H11" s="9"/>
     </row>
@@ -1006,8 +1034,8 @@
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
       <c r="G12" s="9"/>
       <c r="H12" s="9"/>
     </row>
@@ -1018,8 +1046,8 @@
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
     </row>
@@ -1030,8 +1058,8 @@
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
       <c r="G14" s="9"/>
       <c r="H14" s="9"/>
     </row>
@@ -1042,8 +1070,8 @@
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
       <c r="G15" s="9"/>
       <c r="H15" s="9"/>
     </row>
@@ -1054,8 +1082,8 @@
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
       <c r="G16" s="9"/>
       <c r="H16" s="9"/>
     </row>
@@ -1066,8 +1094,8 @@
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
       <c r="G17" s="9"/>
       <c r="H17" s="9"/>
     </row>
@@ -1078,8 +1106,8 @@
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
       <c r="G18" s="9"/>
       <c r="H18" s="9"/>
     </row>
@@ -1090,8 +1118,8 @@
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
       <c r="D19" s="9"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
       <c r="G19" s="9"/>
       <c r="H19" s="9"/>
     </row>
@@ -1102,8 +1130,8 @@
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
       <c r="G20" s="9"/>
       <c r="H20" s="9"/>
     </row>
@@ -1114,8 +1142,8 @@
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
       <c r="D21" s="9"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
       <c r="G21" s="9"/>
       <c r="H21" s="9"/>
     </row>
@@ -1126,8 +1154,8 @@
       <c r="B22" s="9"/>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="15"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
       <c r="G22" s="9"/>
       <c r="H22" s="12"/>
     </row>
@@ -1138,8 +1166,8 @@
       <c r="B23" s="9"/>
       <c r="C23" s="9"/>
       <c r="D23" s="9"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="15"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
       <c r="G23" s="9"/>
       <c r="H23" s="12"/>
     </row>
@@ -1150,8 +1178,8 @@
       <c r="B24" s="9"/>
       <c r="C24" s="9"/>
       <c r="D24" s="9"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="15"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
       <c r="G24" s="9"/>
       <c r="H24" s="12"/>
     </row>
@@ -1162,8 +1190,8 @@
       <c r="B25" s="9"/>
       <c r="C25" s="9"/>
       <c r="D25" s="9"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="15"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
       <c r="G25" s="9"/>
       <c r="H25" s="12"/>
     </row>
@@ -1174,8 +1202,8 @@
       <c r="B26" s="9"/>
       <c r="C26" s="9"/>
       <c r="D26" s="9"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="15"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
       <c r="G26" s="9"/>
       <c r="H26" s="12"/>
     </row>
@@ -1186,8 +1214,8 @@
       <c r="B27" s="9"/>
       <c r="C27" s="9"/>
       <c r="D27" s="9"/>
-      <c r="E27" s="15"/>
-      <c r="F27" s="15"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
       <c r="G27" s="9"/>
       <c r="H27" s="12"/>
     </row>
@@ -1198,8 +1226,8 @@
       <c r="B28" s="9"/>
       <c r="C28" s="9"/>
       <c r="D28" s="9"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="15"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
       <c r="G28" s="9"/>
       <c r="H28" s="12"/>
     </row>
@@ -1210,85 +1238,101 @@
       <c r="B29" s="7"/>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
-      <c r="E29" s="15"/>
-      <c r="F29" s="15"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
       <c r="G29" s="6"/>
       <c r="H29" s="10"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A30" s="1"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="14"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="15"/>
       <c r="H30" s="11"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A31" s="1"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="14"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="15"/>
       <c r="H31" s="11"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A32" s="1"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="14"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="15"/>
       <c r="H32" s="11"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A33" s="1"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="14"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="15"/>
       <c r="H33" s="11"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A34" s="1"/>
-      <c r="E34" s="14"/>
-      <c r="F34" s="14"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="15"/>
       <c r="H34" s="11"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A35" s="1"/>
-      <c r="E35" s="14"/>
-      <c r="F35" s="14"/>
+      <c r="E35" s="15"/>
+      <c r="F35" s="15"/>
       <c r="H35" s="11"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A36" s="1"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="14"/>
+      <c r="E36" s="15"/>
+      <c r="F36" s="15"/>
       <c r="H36" s="11"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A37" s="1"/>
-      <c r="E37" s="14"/>
-      <c r="F37" s="14"/>
+      <c r="E37" s="15"/>
+      <c r="F37" s="15"/>
       <c r="H37" s="11"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A38" s="1"/>
-      <c r="E38" s="14"/>
-      <c r="F38" s="14"/>
+      <c r="E38" s="15"/>
+      <c r="F38" s="15"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A39" s="1"/>
-      <c r="E39" s="14"/>
-      <c r="F39" s="14"/>
+      <c r="E39" s="15"/>
+      <c r="F39" s="15"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A40" s="1"/>
-      <c r="E40" s="14"/>
-      <c r="F40" s="14"/>
+      <c r="E40" s="15"/>
+      <c r="F40" s="15"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A41" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E29:F29"/>
     <mergeCell ref="E18:F18"/>
     <mergeCell ref="E7:F7"/>
     <mergeCell ref="E8:F8"/>
@@ -1301,28 +1345,12 @@
     <mergeCell ref="E15:F15"/>
     <mergeCell ref="E16:F16"/>
     <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/LiftCost.xlsx
+++ b/LiftCost.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>2016年12月</t>
     <rPh sb="4" eb="5">
@@ -347,9 +347,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>淘宝123</t>
+    <t xml:space="preserve">快递费7
+</t>
     <rPh sb="0" eb="1">
-      <t>tao bao</t>
+      <t>kuai di</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>fei</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高速费15
+饭卡100</t>
+    <rPh sb="0" eb="1">
+      <t>gao su fei</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>fan ka</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>干洗20</t>
+    <rPh sb="0" eb="1">
+      <t>gan xi</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -403,7 +425,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -439,25 +461,28 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -739,7 +764,7 @@
   <dimension ref="A1:I41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -779,8 +804,8 @@
       <c r="B2" s="5"/>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
       <c r="G2" s="6"/>
       <c r="H2" s="10"/>
     </row>
@@ -797,10 +822,10 @@
       <c r="D3" s="8">
         <v>0</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="14"/>
+      <c r="F3" s="16"/>
       <c r="G3" s="13">
         <v>120</v>
       </c>
@@ -827,10 +852,10 @@
       <c r="D4" s="8">
         <v>30</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="E4" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="14"/>
+      <c r="F4" s="16"/>
       <c r="G4" s="9">
         <v>320</v>
       </c>
@@ -856,10 +881,10 @@
       <c r="D5" s="9">
         <v>3</v>
       </c>
-      <c r="E5" s="16" t="s">
+      <c r="E5" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="F5" s="17"/>
+      <c r="F5" s="21"/>
       <c r="G5" s="9">
         <v>35.5</v>
       </c>
@@ -885,10 +910,10 @@
       <c r="D6" s="9">
         <v>0</v>
       </c>
-      <c r="E6" s="14" t="s">
+      <c r="E6" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="F6" s="14"/>
+      <c r="F6" s="16"/>
       <c r="G6" s="9">
         <v>10</v>
       </c>
@@ -913,10 +938,10 @@
       <c r="D7" s="9">
         <v>0</v>
       </c>
-      <c r="E7" s="18" t="s">
+      <c r="E7" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="F7" s="14"/>
+      <c r="F7" s="16"/>
       <c r="G7" s="9">
         <v>20</v>
       </c>
@@ -941,10 +966,10 @@
       <c r="D8" s="9">
         <v>0</v>
       </c>
-      <c r="E8" s="14" t="s">
+      <c r="E8" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="F8" s="14"/>
+      <c r="F8" s="16"/>
       <c r="G8" s="9">
         <v>230</v>
       </c>
@@ -970,10 +995,10 @@
       <c r="D9" s="9">
         <v>10</v>
       </c>
-      <c r="E9" s="19" t="s">
+      <c r="E9" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="F9" s="20"/>
+      <c r="F9" s="19"/>
       <c r="G9" s="9">
         <v>470</v>
       </c>
@@ -986,7 +1011,7 @@
         <v>1363.5</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="17" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:9" ht="46" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="6" t="s">
         <v>14</v>
       </c>
@@ -997,47 +1022,79 @@
         <v>10</v>
       </c>
       <c r="D10" s="9">
-        <v>0</v>
-      </c>
-      <c r="E10" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="F10" s="14"/>
+        <v>12</v>
+      </c>
+      <c r="E10" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="F10" s="19"/>
       <c r="G10" s="9">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="H10" s="9">
         <f>SUM(B10:D10,G10)</f>
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="I10" s="3">
         <f>SUM(H3:H10)</f>
-        <v>1499.5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="17" x14ac:dyDescent="0.15">
-      <c r="A11" s="6" t="s">
+        <v>1503.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" s="2" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
+      <c r="B11" s="9">
+        <v>4</v>
+      </c>
+      <c r="C11" s="9">
+        <v>17</v>
+      </c>
+      <c r="D11" s="9">
+        <v>7</v>
+      </c>
+      <c r="E11" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11" s="19"/>
+      <c r="G11" s="9">
+        <v>7</v>
+      </c>
+      <c r="H11" s="9">
+        <f>SUM(B11:D11,G11)</f>
+        <v>35</v>
+      </c>
+      <c r="I11" s="3">
+        <f>SUM(H3:H11)</f>
+        <v>1538.5</v>
+      </c>
     </row>
     <row r="12" spans="1:9" ht="17" x14ac:dyDescent="0.15">
       <c r="A12" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
+      <c r="B12" s="9">
+        <v>3</v>
+      </c>
+      <c r="C12" s="9">
+        <v>12</v>
+      </c>
       <c r="D12" s="9"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
+      <c r="E12" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" s="16"/>
+      <c r="G12" s="9">
+        <v>20</v>
+      </c>
+      <c r="H12" s="9">
+        <f>SUM(B12:D12,G12)</f>
+        <v>35</v>
+      </c>
+      <c r="I12" s="3">
+        <f>SUM(H3:H12)</f>
+        <v>1573.5</v>
+      </c>
     </row>
     <row r="13" spans="1:9" ht="17" x14ac:dyDescent="0.15">
       <c r="A13" s="6" t="s">
@@ -1046,8 +1103,8 @@
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
     </row>
@@ -1058,8 +1115,8 @@
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
       <c r="G14" s="9"/>
       <c r="H14" s="9"/>
     </row>
@@ -1070,8 +1127,8 @@
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
       <c r="G15" s="9"/>
       <c r="H15" s="9"/>
     </row>
@@ -1082,8 +1139,8 @@
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
       <c r="G16" s="9"/>
       <c r="H16" s="9"/>
     </row>
@@ -1094,8 +1151,8 @@
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
       <c r="G17" s="9"/>
       <c r="H17" s="9"/>
     </row>
@@ -1106,8 +1163,8 @@
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
       <c r="G18" s="9"/>
       <c r="H18" s="9"/>
     </row>
@@ -1118,8 +1175,8 @@
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
       <c r="D19" s="9"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
       <c r="G19" s="9"/>
       <c r="H19" s="9"/>
     </row>
@@ -1130,8 +1187,8 @@
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
       <c r="G20" s="9"/>
       <c r="H20" s="9"/>
     </row>
@@ -1142,8 +1199,8 @@
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
       <c r="D21" s="9"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
       <c r="G21" s="9"/>
       <c r="H21" s="9"/>
     </row>
@@ -1154,8 +1211,8 @@
       <c r="B22" s="9"/>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
       <c r="G22" s="9"/>
       <c r="H22" s="12"/>
     </row>
@@ -1166,8 +1223,8 @@
       <c r="B23" s="9"/>
       <c r="C23" s="9"/>
       <c r="D23" s="9"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="16"/>
       <c r="G23" s="9"/>
       <c r="H23" s="12"/>
     </row>
@@ -1178,8 +1235,8 @@
       <c r="B24" s="9"/>
       <c r="C24" s="9"/>
       <c r="D24" s="9"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
       <c r="G24" s="9"/>
       <c r="H24" s="12"/>
     </row>
@@ -1190,8 +1247,8 @@
       <c r="B25" s="9"/>
       <c r="C25" s="9"/>
       <c r="D25" s="9"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
       <c r="G25" s="9"/>
       <c r="H25" s="12"/>
     </row>
@@ -1202,8 +1259,8 @@
       <c r="B26" s="9"/>
       <c r="C26" s="9"/>
       <c r="D26" s="9"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="16"/>
       <c r="G26" s="9"/>
       <c r="H26" s="12"/>
     </row>
@@ -1214,8 +1271,8 @@
       <c r="B27" s="9"/>
       <c r="C27" s="9"/>
       <c r="D27" s="9"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="16"/>
       <c r="G27" s="9"/>
       <c r="H27" s="12"/>
     </row>
@@ -1226,8 +1283,8 @@
       <c r="B28" s="9"/>
       <c r="C28" s="9"/>
       <c r="D28" s="9"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="16"/>
       <c r="G28" s="9"/>
       <c r="H28" s="12"/>
     </row>
@@ -1238,8 +1295,8 @@
       <c r="B29" s="7"/>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
       <c r="G29" s="6"/>
       <c r="H29" s="10"/>
     </row>
@@ -1311,16 +1368,24 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E17:F17"/>
     <mergeCell ref="E30:F30"/>
     <mergeCell ref="E19:F19"/>
     <mergeCell ref="E20:F20"/>
@@ -1333,24 +1398,16 @@
     <mergeCell ref="E27:F27"/>
     <mergeCell ref="E28:F28"/>
     <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E36:F36"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/LiftCost.xlsx
+++ b/LiftCost.xlsx
@@ -369,9 +369,13 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>干洗20</t>
+    <t>干洗20
+洗澡28</t>
     <rPh sb="0" eb="1">
       <t>gan xi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>xi zao</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -463,11 +467,17 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -477,12 +487,6 @@
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -764,7 +768,7 @@
   <dimension ref="A1:I41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -786,10 +790,10 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="15"/>
+      <c r="F1" s="16"/>
       <c r="H1" s="1" t="s">
         <v>36</v>
       </c>
@@ -804,8 +808,8 @@
       <c r="B2" s="5"/>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
       <c r="G2" s="6"/>
       <c r="H2" s="10"/>
     </row>
@@ -822,10 +826,10 @@
       <c r="D3" s="8">
         <v>0</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="E3" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="16"/>
+      <c r="F3" s="15"/>
       <c r="G3" s="13">
         <v>120</v>
       </c>
@@ -852,10 +856,10 @@
       <c r="D4" s="8">
         <v>30</v>
       </c>
-      <c r="E4" s="16" t="s">
+      <c r="E4" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="16"/>
+      <c r="F4" s="15"/>
       <c r="G4" s="9">
         <v>320</v>
       </c>
@@ -881,10 +885,10 @@
       <c r="D5" s="9">
         <v>3</v>
       </c>
-      <c r="E5" s="20" t="s">
+      <c r="E5" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="F5" s="21"/>
+      <c r="F5" s="18"/>
       <c r="G5" s="9">
         <v>35.5</v>
       </c>
@@ -910,10 +914,10 @@
       <c r="D6" s="9">
         <v>0</v>
       </c>
-      <c r="E6" s="16" t="s">
+      <c r="E6" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="F6" s="16"/>
+      <c r="F6" s="15"/>
       <c r="G6" s="9">
         <v>10</v>
       </c>
@@ -938,10 +942,10 @@
       <c r="D7" s="9">
         <v>0</v>
       </c>
-      <c r="E7" s="17" t="s">
+      <c r="E7" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="F7" s="16"/>
+      <c r="F7" s="15"/>
       <c r="G7" s="9">
         <v>20</v>
       </c>
@@ -966,10 +970,10 @@
       <c r="D8" s="9">
         <v>0</v>
       </c>
-      <c r="E8" s="16" t="s">
+      <c r="E8" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="F8" s="16"/>
+      <c r="F8" s="15"/>
       <c r="G8" s="9">
         <v>230</v>
       </c>
@@ -995,10 +999,10 @@
       <c r="D9" s="9">
         <v>10</v>
       </c>
-      <c r="E9" s="18" t="s">
+      <c r="E9" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="F9" s="19"/>
+      <c r="F9" s="21"/>
       <c r="G9" s="9">
         <v>470</v>
       </c>
@@ -1024,10 +1028,10 @@
       <c r="D10" s="9">
         <v>12</v>
       </c>
-      <c r="E10" s="18" t="s">
+      <c r="E10" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="F10" s="19"/>
+      <c r="F10" s="21"/>
       <c r="G10" s="9">
         <v>115</v>
       </c>
@@ -1053,10 +1057,10 @@
       <c r="D11" s="9">
         <v>7</v>
       </c>
-      <c r="E11" s="18" t="s">
+      <c r="E11" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="F11" s="19"/>
+      <c r="F11" s="21"/>
       <c r="G11" s="9">
         <v>7</v>
       </c>
@@ -1069,7 +1073,7 @@
         <v>1538.5</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="17" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:9" ht="89" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="6" t="s">
         <v>16</v>
       </c>
@@ -1079,34 +1083,49 @@
       <c r="C12" s="9">
         <v>12</v>
       </c>
-      <c r="D12" s="9"/>
-      <c r="E12" s="16" t="s">
+      <c r="D12" s="9">
+        <v>20</v>
+      </c>
+      <c r="E12" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="F12" s="16"/>
+      <c r="F12" s="21"/>
       <c r="G12" s="9">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="H12" s="9">
         <f>SUM(B12:D12,G12)</f>
-        <v>35</v>
+        <v>83</v>
       </c>
       <c r="I12" s="3">
         <f>SUM(H3:H12)</f>
-        <v>1573.5</v>
+        <v>1621.5</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17" x14ac:dyDescent="0.15">
       <c r="A13" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
+      <c r="B13" s="9">
+        <v>3</v>
+      </c>
+      <c r="C13" s="9">
+        <v>17</v>
+      </c>
+      <c r="D13" s="9">
+        <v>0</v>
+      </c>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
       <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
+      <c r="H13" s="9">
+        <f>SUM(B13:D13,G13)</f>
+        <v>20</v>
+      </c>
+      <c r="I13" s="3">
+        <f>SUM(H3:H13)</f>
+        <v>1641.5</v>
+      </c>
     </row>
     <row r="14" spans="1:9" ht="17" x14ac:dyDescent="0.15">
       <c r="A14" s="6" t="s">
@@ -1115,8 +1134,8 @@
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
       <c r="G14" s="9"/>
       <c r="H14" s="9"/>
     </row>
@@ -1127,8 +1146,8 @@
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
       <c r="G15" s="9"/>
       <c r="H15" s="9"/>
     </row>
@@ -1139,8 +1158,8 @@
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="16"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
       <c r="G16" s="9"/>
       <c r="H16" s="9"/>
     </row>
@@ -1151,8 +1170,8 @@
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
       <c r="G17" s="9"/>
       <c r="H17" s="9"/>
     </row>
@@ -1163,8 +1182,8 @@
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
       <c r="G18" s="9"/>
       <c r="H18" s="9"/>
     </row>
@@ -1175,8 +1194,8 @@
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
       <c r="D19" s="9"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="16"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
       <c r="G19" s="9"/>
       <c r="H19" s="9"/>
     </row>
@@ -1187,8 +1206,8 @@
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="16"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
       <c r="G20" s="9"/>
       <c r="H20" s="9"/>
     </row>
@@ -1199,8 +1218,8 @@
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
       <c r="D21" s="9"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="16"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
       <c r="G21" s="9"/>
       <c r="H21" s="9"/>
     </row>
@@ -1211,8 +1230,8 @@
       <c r="B22" s="9"/>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="16"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
       <c r="G22" s="9"/>
       <c r="H22" s="12"/>
     </row>
@@ -1223,8 +1242,8 @@
       <c r="B23" s="9"/>
       <c r="C23" s="9"/>
       <c r="D23" s="9"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="16"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
       <c r="G23" s="9"/>
       <c r="H23" s="12"/>
     </row>
@@ -1235,8 +1254,8 @@
       <c r="B24" s="9"/>
       <c r="C24" s="9"/>
       <c r="D24" s="9"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="16"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
       <c r="G24" s="9"/>
       <c r="H24" s="12"/>
     </row>
@@ -1247,8 +1266,8 @@
       <c r="B25" s="9"/>
       <c r="C25" s="9"/>
       <c r="D25" s="9"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="16"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
       <c r="G25" s="9"/>
       <c r="H25" s="12"/>
     </row>
@@ -1259,8 +1278,8 @@
       <c r="B26" s="9"/>
       <c r="C26" s="9"/>
       <c r="D26" s="9"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="16"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
       <c r="G26" s="9"/>
       <c r="H26" s="12"/>
     </row>
@@ -1271,8 +1290,8 @@
       <c r="B27" s="9"/>
       <c r="C27" s="9"/>
       <c r="D27" s="9"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="16"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="15"/>
       <c r="G27" s="9"/>
       <c r="H27" s="12"/>
     </row>
@@ -1283,8 +1302,8 @@
       <c r="B28" s="9"/>
       <c r="C28" s="9"/>
       <c r="D28" s="9"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="16"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="15"/>
       <c r="G28" s="9"/>
       <c r="H28" s="12"/>
     </row>
@@ -1295,85 +1314,101 @@
       <c r="B29" s="7"/>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
-      <c r="E29" s="16"/>
-      <c r="F29" s="16"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="15"/>
       <c r="G29" s="6"/>
       <c r="H29" s="10"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A30" s="1"/>
-      <c r="E30" s="15"/>
-      <c r="F30" s="15"/>
+      <c r="E30" s="16"/>
+      <c r="F30" s="16"/>
       <c r="H30" s="11"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A31" s="1"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="15"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="16"/>
       <c r="H31" s="11"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A32" s="1"/>
-      <c r="E32" s="15"/>
-      <c r="F32" s="15"/>
+      <c r="E32" s="16"/>
+      <c r="F32" s="16"/>
       <c r="H32" s="11"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A33" s="1"/>
-      <c r="E33" s="15"/>
-      <c r="F33" s="15"/>
+      <c r="E33" s="16"/>
+      <c r="F33" s="16"/>
       <c r="H33" s="11"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A34" s="1"/>
-      <c r="E34" s="15"/>
-      <c r="F34" s="15"/>
+      <c r="E34" s="16"/>
+      <c r="F34" s="16"/>
       <c r="H34" s="11"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A35" s="1"/>
-      <c r="E35" s="15"/>
-      <c r="F35" s="15"/>
+      <c r="E35" s="16"/>
+      <c r="F35" s="16"/>
       <c r="H35" s="11"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A36" s="1"/>
-      <c r="E36" s="15"/>
-      <c r="F36" s="15"/>
+      <c r="E36" s="16"/>
+      <c r="F36" s="16"/>
       <c r="H36" s="11"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A37" s="1"/>
-      <c r="E37" s="15"/>
-      <c r="F37" s="15"/>
+      <c r="E37" s="16"/>
+      <c r="F37" s="16"/>
       <c r="H37" s="11"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A38" s="1"/>
-      <c r="E38" s="15"/>
-      <c r="F38" s="15"/>
+      <c r="E38" s="16"/>
+      <c r="F38" s="16"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A39" s="1"/>
-      <c r="E39" s="15"/>
-      <c r="F39" s="15"/>
+      <c r="E39" s="16"/>
+      <c r="F39" s="16"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A40" s="1"/>
-      <c r="E40" s="15"/>
-      <c r="F40" s="15"/>
+      <c r="E40" s="16"/>
+      <c r="F40" s="16"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A41" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E29:F29"/>
     <mergeCell ref="E18:F18"/>
     <mergeCell ref="E7:F7"/>
     <mergeCell ref="E8:F8"/>
@@ -1386,28 +1421,12 @@
     <mergeCell ref="E15:F15"/>
     <mergeCell ref="E16:F16"/>
     <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
